--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC016C-BDE2-CF4D-ACFE-A43F617935FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA900B-2FB8-41D3-9C38-85ABF810F9E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1056,24 +1057,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="41.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="24"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1093,7 +1094,7 @@
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -1125,7 +1126,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -1163,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1191,7 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1218,7 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1244,7 +1245,7 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1325,7 +1326,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1353,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1380,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1456,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA900B-2FB8-41D3-9C38-85ABF810F9E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D38C1D-B4AE-4C4D-BE44-E0C521ED19CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,14 +1057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D38C1D-B4AE-4C4D-BE44-E0C521ED19CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED6957F-6115-9F4B-967E-C78561F5AE15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Assets</t>
   </si>
@@ -494,7 +493,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -566,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1058,23 +1060,23 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M1" sqref="M1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="24"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1086,15 +1088,13 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -1126,7 +1126,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1213,12 +1213,12 @@
       <c r="M5" s="22"/>
       <c r="N5" s="19"/>
       <c r="O5" s="22">
-        <v>-3000</v>
+        <v>3000</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1269,10 +1269,10 @@
       <c r="O7" s="22"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22">
-        <v>-700</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1296,10 +1296,10 @@
       <c r="O8" s="22"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="22">
-        <v>-200</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1419,15 +1419,15 @@
       <c r="N12" s="19"/>
       <c r="O12" s="23">
         <f>SUM(O4:O11)</f>
-        <v>-3000</v>
+        <v>3000</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="23">
         <f>SUM(Q4:Q11)</f>
-        <v>-900</v>
+        <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1473,22 +1473,22 @@
       <c r="J14" s="18"/>
       <c r="K14" s="22">
         <f>O12+Q12</f>
-        <v>-3900</v>
+        <v>3900</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="22"/>
       <c r="N14" s="19"/>
       <c r="O14" s="22">
         <f>-O12</f>
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="22">
         <f>-Q12</f>
-        <v>900</v>
+        <v>-900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="23">
         <f>SUM(K12:K14)</f>
-        <v>100</v>
+        <v>7900</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="23">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED6957F-6115-9F4B-967E-C78561F5AE15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A4E72-EAAD-4DDA-B1E9-274C2C0BBEA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1057,26 +1058,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
+    <col min="14" max="14" width="1.875" customWidth="1"/>
+    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1094,7 +1096,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -1126,7 +1128,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -1164,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1191,7 +1193,7 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1220,7 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1245,7 +1247,7 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1326,7 +1328,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1355,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1382,7 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1456,7 +1458,7 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1535,6 +1537,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:B3"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_TYU_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A4E72-EAAD-4DDA-B1E9-274C2C0BBEA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83686E2-CAE0-244A-A657-F8A8CB9D4743}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Assets</t>
   </si>
@@ -100,30 +99,18 @@
     <t>7.</t>
   </si>
   <si>
-    <t>Closed revenue account</t>
-  </si>
-  <si>
-    <t>Closed expense accounts</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
     <t>9.</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
     <t>Issue stock for cash, $6,500</t>
   </si>
   <si>
     <t>Sold memberships to customers for cash, $1,000</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
     <t>Purchased supplies for cash, $200</t>
   </si>
   <si>
@@ -136,13 +123,7 @@
     <t>Received cash on account, $1,500</t>
   </si>
   <si>
-    <t>12.</t>
-  </si>
-  <si>
     <t>Ending balances before closing</t>
-  </si>
-  <si>
-    <t>Ending balances after closing</t>
   </si>
   <si>
     <t>Sold to customers on credit account, $3000</t>
@@ -1058,27 +1039,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="24"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1096,7 +1077,7 @@
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
         <v>0</v>
@@ -1128,7 +1109,7 @@
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -1166,12 +1147,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="15">
         <v>6500</v>
@@ -1193,12 +1174,12 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="22">
         <v>-3000</v>
@@ -1220,12 +1201,12 @@
       <c r="P5" s="21"/>
       <c r="Q5" s="22"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="22">
         <v>1000</v>
@@ -1247,12 +1228,12 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="16"/>
@@ -1274,12 +1255,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="22">
         <v>-200</v>
@@ -1301,12 +1282,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="22">
         <v>-500</v>
@@ -1328,12 +1309,12 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="16"/>
@@ -1355,12 +1336,12 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
     </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="23">
         <v>1500</v>
@@ -1382,12 +1363,12 @@
       <c r="P11" s="21"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="23">
         <f>SUM(C4:C11)</f>
@@ -1429,115 +1410,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="22">
-        <f>M12</f>
-        <v>4000</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="22">
-        <f>-M12</f>
-        <v>-4000</v>
-      </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="22">
-        <f>O12+Q12</f>
-        <v>3900</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="22">
-        <f>-O12</f>
-        <v>-3000</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22">
-        <f>-Q12</f>
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="23">
-        <f>C12</f>
-        <v>5300</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="23">
-        <f>E12</f>
-        <v>1500</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="23">
-        <f>G12</f>
-        <v>200</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="23">
-        <f>I12</f>
-        <v>6500</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="23">
-        <f>SUM(K12:K14)</f>
-        <v>7900</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="23">
-        <f>SUM(M12:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="23">
-        <f>SUM(O12:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="23">
-        <f>SUM(Q12:Q14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:B3"/>
